--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Claudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">portugal</t>
   </si>
 </sst>
 </file>
@@ -46,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,50 +62,58 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Mangal"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Mangal"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -119,44 +125,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,22 +214,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -238,22 +276,22 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Status" xfId="26"/>
-    <cellStyle name="Good" xfId="27"/>
-    <cellStyle name="Neutral" xfId="28"/>
-    <cellStyle name="Bad" xfId="29"/>
-    <cellStyle name="Warning" xfId="30"/>
-    <cellStyle name="Error" xfId="31"/>
-    <cellStyle name="Accent" xfId="32"/>
-    <cellStyle name="Accent 1" xfId="33"/>
-    <cellStyle name="Accent 2" xfId="34"/>
-    <cellStyle name="Accent 3" xfId="35"/>
+    <cellStyle name="Accent 1 16" xfId="20"/>
+    <cellStyle name="Accent 15" xfId="21"/>
+    <cellStyle name="Accent 2 17" xfId="22"/>
+    <cellStyle name="Accent 3 18" xfId="23"/>
+    <cellStyle name="Bad 12" xfId="24"/>
+    <cellStyle name="Error 14" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 10" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Neutral 11" xfId="31"/>
+    <cellStyle name="Note 7" xfId="32"/>
+    <cellStyle name="Status 9" xfId="33"/>
+    <cellStyle name="Text 6" xfId="34"/>
+    <cellStyle name="Warning 13" xfId="35"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -319,20 +357,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -346,8 +381,8 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
+      <c r="B2" s="0" t="n">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
